--- a/REGULAR/CASUAL-REGULAR FINAL/ANGCAYA, FRANCIS.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/ANGCAYA, FRANCIS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2C80E3-671E-424F-BF24-698FBF2B897D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="185">
   <si>
     <t>PERIOD</t>
   </si>
@@ -586,12 +585,15 @@
   </si>
   <si>
     <t>2/28 - 3/1/2023</t>
+  </si>
+  <si>
+    <t>7/19,20/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1270,7 +1272,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1287,25 +1289,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K400" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K400" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1612,34 +1614,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K400"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A350" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A350" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="C356" sqref="C356"/>
+      <selection pane="bottomLeft" activeCell="E356" sqref="E356"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1660,7 +1662,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1680,7 +1682,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1700,7 +1702,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1708,7 +1710,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1721,7 +1723,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1738,7 +1740,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1773,7 +1775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1782,7 +1784,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>155.44000000000005</v>
+        <v>153.44000000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1797,7 +1799,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="20" t="s">
         <v>65</v>
@@ -1819,7 +1821,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>67</v>
       </c>
@@ -1839,7 +1841,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>35977</v>
       </c>
@@ -1859,7 +1861,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>36008</v>
       </c>
@@ -1879,7 +1881,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>36039</v>
       </c>
@@ -1899,7 +1901,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>36069</v>
       </c>
@@ -1925,7 +1927,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>36100</v>
       </c>
@@ -1951,7 +1953,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>36130</v>
       </c>
@@ -1971,7 +1973,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>71</v>
       </c>
@@ -1989,7 +1991,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>36161</v>
       </c>
@@ -2009,7 +2011,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>36192</v>
       </c>
@@ -2029,7 +2031,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>36220</v>
       </c>
@@ -2053,7 +2055,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>36251</v>
       </c>
@@ -2079,7 +2081,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>36281</v>
       </c>
@@ -2105,7 +2107,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="20" t="s">
         <v>45</v>
@@ -2127,7 +2129,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>77</v>
@@ -2149,7 +2151,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>36312</v>
       </c>
@@ -2173,7 +2175,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>36342</v>
       </c>
@@ -2193,7 +2195,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>36373</v>
       </c>
@@ -2213,7 +2215,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>36404</v>
       </c>
@@ -2233,7 +2235,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>36434</v>
       </c>
@@ -2253,7 +2255,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
         <v>36465</v>
       </c>
@@ -2273,7 +2275,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>36495</v>
       </c>
@@ -2293,7 +2295,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
         <v>79</v>
       </c>
@@ -2311,7 +2313,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>36526</v>
       </c>
@@ -2331,7 +2333,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>36557</v>
       </c>
@@ -2351,7 +2353,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <v>36586</v>
       </c>
@@ -2377,7 +2379,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>36617</v>
       </c>
@@ -2397,7 +2399,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <v>36647</v>
       </c>
@@ -2423,7 +2425,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>50</v>
@@ -2443,7 +2445,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>36678</v>
       </c>
@@ -2463,7 +2465,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>36708</v>
       </c>
@@ -2483,7 +2485,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <v>36739</v>
       </c>
@@ -2503,7 +2505,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>36770</v>
       </c>
@@ -2523,7 +2525,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>36800</v>
       </c>
@@ -2543,7 +2545,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>36831</v>
       </c>
@@ -2563,7 +2565,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>36861</v>
       </c>
@@ -2583,7 +2585,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
         <v>82</v>
       </c>
@@ -2601,7 +2603,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <v>36892</v>
       </c>
@@ -2621,7 +2623,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>36923</v>
       </c>
@@ -2641,7 +2643,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <v>36951</v>
       </c>
@@ -2661,7 +2663,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <v>36982</v>
       </c>
@@ -2681,7 +2683,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <v>37012</v>
       </c>
@@ -2701,7 +2703,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>37043</v>
       </c>
@@ -2721,7 +2723,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <v>37073</v>
       </c>
@@ -2741,7 +2743,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>37104</v>
       </c>
@@ -2761,7 +2763,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>37135</v>
       </c>
@@ -2781,7 +2783,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>37165</v>
       </c>
@@ -2801,7 +2803,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>37196</v>
       </c>
@@ -2827,7 +2829,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>37226</v>
       </c>
@@ -2851,7 +2853,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="47" t="s">
         <v>84</v>
       </c>
@@ -2869,7 +2871,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>37257</v>
       </c>
@@ -2889,7 +2891,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <v>37288</v>
       </c>
@@ -2909,7 +2911,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>37316</v>
       </c>
@@ -2929,7 +2931,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <v>37347</v>
       </c>
@@ -2949,7 +2951,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <v>37377</v>
       </c>
@@ -2973,7 +2975,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <v>37408</v>
       </c>
@@ -2993,7 +2995,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>37438</v>
       </c>
@@ -3013,7 +3015,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>37469</v>
       </c>
@@ -3039,7 +3041,7 @@
         <v>37445</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <v>37500</v>
       </c>
@@ -3059,7 +3061,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>37530</v>
       </c>
@@ -3079,7 +3081,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <v>37561</v>
       </c>
@@ -3099,7 +3101,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>37591</v>
       </c>
@@ -3123,7 +3125,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="47" t="s">
         <v>86</v>
       </c>
@@ -3141,7 +3143,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <v>37622</v>
       </c>
@@ -3161,7 +3163,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>37653</v>
       </c>
@@ -3181,7 +3183,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <v>37681</v>
       </c>
@@ -3207,7 +3209,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23"/>
       <c r="B77" s="20" t="s">
         <v>47</v>
@@ -3229,7 +3231,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <v>37712</v>
       </c>
@@ -3249,7 +3251,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <v>37742</v>
       </c>
@@ -3275,7 +3277,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>37773</v>
       </c>
@@ -3295,7 +3297,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>37803</v>
       </c>
@@ -3315,7 +3317,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <v>37834</v>
       </c>
@@ -3335,7 +3337,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>37865</v>
       </c>
@@ -3355,7 +3357,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
         <v>37895</v>
       </c>
@@ -3379,7 +3381,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>37926</v>
       </c>
@@ -3403,7 +3405,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>37956</v>
       </c>
@@ -3427,7 +3429,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="47" t="s">
         <v>93</v>
       </c>
@@ -3445,7 +3447,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <v>37987</v>
       </c>
@@ -3465,7 +3467,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23">
         <v>38018</v>
       </c>
@@ -3485,7 +3487,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>38047</v>
       </c>
@@ -3505,7 +3507,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23">
         <v>38078</v>
       </c>
@@ -3525,7 +3527,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <v>38108</v>
       </c>
@@ -3545,7 +3547,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <v>38139</v>
       </c>
@@ -3571,7 +3573,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>38169</v>
       </c>
@@ -3591,7 +3593,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>38200</v>
       </c>
@@ -3611,7 +3613,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <v>38231</v>
       </c>
@@ -3631,7 +3633,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
         <v>38261</v>
       </c>
@@ -3651,7 +3653,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>38292</v>
       </c>
@@ -3671,7 +3673,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
         <v>38322</v>
       </c>
@@ -3695,7 +3697,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="47" t="s">
         <v>95</v>
       </c>
@@ -3713,7 +3715,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>38353</v>
       </c>
@@ -3737,7 +3739,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>38384</v>
       </c>
@@ -3761,7 +3763,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>38412</v>
       </c>
@@ -3785,7 +3787,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>38443</v>
       </c>
@@ -3809,7 +3811,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <v>38473</v>
       </c>
@@ -3829,7 +3831,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>38504</v>
       </c>
@@ -3849,7 +3851,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>38534</v>
       </c>
@@ -3873,7 +3875,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
         <v>38565</v>
       </c>
@@ -3897,7 +3899,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <v>38596</v>
       </c>
@@ -3917,7 +3919,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>38626</v>
       </c>
@@ -3937,7 +3939,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
         <v>38657</v>
       </c>
@@ -3957,7 +3959,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <v>38687</v>
       </c>
@@ -3981,7 +3983,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="47" t="s">
         <v>102</v>
       </c>
@@ -3999,7 +4001,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>38718</v>
       </c>
@@ -4025,7 +4027,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>104</v>
@@ -4045,7 +4047,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>38749</v>
       </c>
@@ -4069,7 +4071,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
         <v>38777</v>
       </c>
@@ -4093,7 +4095,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <v>38808</v>
       </c>
@@ -4113,7 +4115,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <v>38838</v>
       </c>
@@ -4137,7 +4139,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>38869</v>
       </c>
@@ -4161,7 +4163,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <v>38899</v>
       </c>
@@ -4185,7 +4187,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>38930</v>
       </c>
@@ -4205,7 +4207,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>38961</v>
       </c>
@@ -4229,7 +4231,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>38991</v>
       </c>
@@ -4253,7 +4255,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <v>39022</v>
       </c>
@@ -4277,7 +4279,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>39052</v>
       </c>
@@ -4301,7 +4303,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="47" t="s">
         <v>114</v>
       </c>
@@ -4319,7 +4321,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <v>39083</v>
       </c>
@@ -4343,7 +4345,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <v>39114</v>
       </c>
@@ -4367,7 +4369,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>39142</v>
       </c>
@@ -4391,7 +4393,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>39173</v>
       </c>
@@ -4415,7 +4417,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <v>39203</v>
       </c>
@@ -4435,7 +4437,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>39234</v>
       </c>
@@ -4455,7 +4457,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23">
         <v>39264</v>
       </c>
@@ -4475,7 +4477,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <v>39295</v>
       </c>
@@ -4495,7 +4497,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>39326</v>
       </c>
@@ -4521,7 +4523,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <v>39356</v>
       </c>
@@ -4541,7 +4543,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>39387</v>
       </c>
@@ -4561,7 +4563,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <v>39417</v>
       </c>
@@ -4585,7 +4587,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="47" t="s">
         <v>119</v>
       </c>
@@ -4603,7 +4605,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23">
         <v>39448</v>
       </c>
@@ -4623,7 +4625,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <v>39479</v>
       </c>
@@ -4643,7 +4645,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>39508</v>
       </c>
@@ -4669,7 +4671,7 @@
         <v>39541</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <v>39539</v>
       </c>
@@ -4689,7 +4691,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>39569</v>
       </c>
@@ -4709,7 +4711,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>39600</v>
       </c>
@@ -4729,7 +4731,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>39630</v>
       </c>
@@ -4749,7 +4751,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <v>39661</v>
       </c>
@@ -4769,7 +4771,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>39692</v>
       </c>
@@ -4789,7 +4791,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <v>39722</v>
       </c>
@@ -4809,7 +4811,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23">
         <v>39753</v>
       </c>
@@ -4829,7 +4831,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>39783</v>
       </c>
@@ -4853,7 +4855,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="47" t="s">
         <v>120</v>
       </c>
@@ -4871,7 +4873,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23">
         <v>39814</v>
       </c>
@@ -4891,7 +4893,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>39845</v>
       </c>
@@ -4917,7 +4919,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <v>39873</v>
       </c>
@@ -4943,7 +4945,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23">
         <v>39904</v>
       </c>
@@ -4967,7 +4969,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>39934</v>
       </c>
@@ -4987,7 +4989,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <v>39965</v>
       </c>
@@ -5007,7 +5009,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23">
         <v>39995</v>
       </c>
@@ -5027,7 +5029,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <v>40026</v>
       </c>
@@ -5047,7 +5049,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23">
         <v>40057</v>
       </c>
@@ -5067,7 +5069,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <v>40087</v>
       </c>
@@ -5091,7 +5093,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23">
         <v>40118</v>
       </c>
@@ -5111,7 +5113,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23">
         <v>40148</v>
       </c>
@@ -5131,7 +5133,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="47" t="s">
         <v>124</v>
       </c>
@@ -5149,7 +5151,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <v>40179</v>
       </c>
@@ -5173,7 +5175,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <v>40210</v>
       </c>
@@ -5193,7 +5195,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23">
         <v>40238</v>
       </c>
@@ -5213,7 +5215,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>40269</v>
       </c>
@@ -5233,7 +5235,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <v>40299</v>
       </c>
@@ -5253,7 +5255,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23">
         <v>40330</v>
       </c>
@@ -5273,7 +5275,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>40360</v>
       </c>
@@ -5293,7 +5295,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <v>40391</v>
       </c>
@@ -5313,7 +5315,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>40422</v>
       </c>
@@ -5333,7 +5335,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23">
         <v>40452</v>
       </c>
@@ -5353,7 +5355,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>40483</v>
       </c>
@@ -5373,7 +5375,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>40513</v>
       </c>
@@ -5393,7 +5395,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="47" t="s">
         <v>125</v>
       </c>
@@ -5411,7 +5413,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <v>40544</v>
       </c>
@@ -5431,7 +5433,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23">
         <v>40575</v>
       </c>
@@ -5451,7 +5453,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>40603</v>
       </c>
@@ -5471,7 +5473,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>40634</v>
       </c>
@@ -5491,7 +5493,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23">
         <v>40664</v>
       </c>
@@ -5511,7 +5513,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>40695</v>
       </c>
@@ -5537,7 +5539,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <v>40725</v>
       </c>
@@ -5557,7 +5559,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <v>40756</v>
       </c>
@@ -5577,7 +5579,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23">
         <v>40787</v>
       </c>
@@ -5597,7 +5599,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <v>40817</v>
       </c>
@@ -5617,7 +5619,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>40848</v>
       </c>
@@ -5637,7 +5639,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>40878</v>
       </c>
@@ -5663,7 +5665,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>128</v>
@@ -5683,7 +5685,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="47" t="s">
         <v>129</v>
       </c>
@@ -5701,7 +5703,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <v>40909</v>
       </c>
@@ -5721,7 +5723,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>40940</v>
       </c>
@@ -5741,7 +5743,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <v>40969</v>
       </c>
@@ -5761,7 +5763,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <v>41000</v>
       </c>
@@ -5781,7 +5783,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23">
         <v>41030</v>
       </c>
@@ -5801,7 +5803,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23">
         <v>41061</v>
       </c>
@@ -5821,7 +5823,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <v>41091</v>
       </c>
@@ -5841,7 +5843,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>41122</v>
       </c>
@@ -5861,7 +5863,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <v>41153</v>
       </c>
@@ -5881,7 +5883,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>41183</v>
       </c>
@@ -5901,7 +5903,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23">
         <v>41214</v>
       </c>
@@ -5921,7 +5923,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <v>41244</v>
       </c>
@@ -5945,7 +5947,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="47" t="s">
         <v>130</v>
       </c>
@@ -5963,7 +5965,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <v>41275</v>
       </c>
@@ -5983,7 +5985,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <v>41306</v>
       </c>
@@ -6003,7 +6005,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <v>41334</v>
       </c>
@@ -6023,7 +6025,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23">
         <v>41365</v>
       </c>
@@ -6043,7 +6045,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>41395</v>
       </c>
@@ -6063,7 +6065,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23">
         <v>41426</v>
       </c>
@@ -6083,7 +6085,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23">
         <v>41456</v>
       </c>
@@ -6103,7 +6105,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <v>41487</v>
       </c>
@@ -6129,7 +6131,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <v>41518</v>
       </c>
@@ -6149,7 +6151,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23">
         <v>41548</v>
       </c>
@@ -6169,7 +6171,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>41579</v>
       </c>
@@ -6189,7 +6191,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>41609</v>
       </c>
@@ -6209,7 +6211,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="47" t="s">
         <v>133</v>
       </c>
@@ -6227,7 +6229,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <v>41640</v>
       </c>
@@ -6251,7 +6253,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <v>41671</v>
       </c>
@@ -6275,7 +6277,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>41699</v>
       </c>
@@ -6299,7 +6301,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23">
         <v>41730</v>
       </c>
@@ -6323,7 +6325,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <v>41760</v>
       </c>
@@ -6347,7 +6349,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <v>41791</v>
       </c>
@@ -6371,7 +6373,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23">
         <v>41821</v>
       </c>
@@ -6395,7 +6397,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <v>41852</v>
       </c>
@@ -6419,7 +6421,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <v>41883</v>
       </c>
@@ -6443,7 +6445,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <v>41913</v>
       </c>
@@ -6467,7 +6469,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>41944</v>
       </c>
@@ -6491,7 +6493,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23">
         <v>41974</v>
       </c>
@@ -6515,7 +6517,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23"/>
       <c r="B232" s="20" t="s">
         <v>48</v>
@@ -6535,7 +6537,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="47" t="s">
         <v>146</v>
       </c>
@@ -6553,7 +6555,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <v>42005</v>
       </c>
@@ -6577,7 +6579,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23">
         <v>42036</v>
       </c>
@@ -6601,7 +6603,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <v>42064</v>
       </c>
@@ -6627,7 +6629,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>150</v>
@@ -6647,7 +6649,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23">
         <v>42095</v>
       </c>
@@ -6671,7 +6673,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23">
         <v>42125</v>
       </c>
@@ -6695,7 +6697,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <v>42156</v>
       </c>
@@ -6719,7 +6721,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>154</v>
@@ -6739,7 +6741,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23">
         <v>42186</v>
       </c>
@@ -6763,7 +6765,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>45</v>
@@ -6783,7 +6785,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <v>42217</v>
       </c>
@@ -6809,7 +6811,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <v>42248</v>
       </c>
@@ -6829,7 +6831,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <v>42278</v>
       </c>
@@ -6849,7 +6851,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23">
         <v>42309</v>
       </c>
@@ -6869,7 +6871,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <v>42339</v>
       </c>
@@ -6895,7 +6897,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="47" t="s">
         <v>158</v>
       </c>
@@ -6913,7 +6915,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23">
         <v>42370</v>
       </c>
@@ -6933,7 +6935,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <v>42401</v>
       </c>
@@ -6953,7 +6955,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <v>42430</v>
       </c>
@@ -6973,7 +6975,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>42461</v>
       </c>
@@ -6993,7 +6995,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>42491</v>
       </c>
@@ -7013,7 +7015,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <v>42522</v>
       </c>
@@ -7033,7 +7035,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <v>42552</v>
       </c>
@@ -7059,7 +7061,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <v>42583</v>
       </c>
@@ -7085,7 +7087,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23">
         <v>42614</v>
       </c>
@@ -7111,7 +7113,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <v>42644</v>
       </c>
@@ -7135,7 +7137,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <v>42675</v>
       </c>
@@ -7159,7 +7161,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <v>42705</v>
       </c>
@@ -7183,7 +7185,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>51</v>
@@ -7203,7 +7205,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="47" t="s">
         <v>165</v>
       </c>
@@ -7221,7 +7223,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <v>42736</v>
       </c>
@@ -7245,7 +7247,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <v>42767</v>
       </c>
@@ -7269,7 +7271,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <v>42795</v>
       </c>
@@ -7293,7 +7295,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <v>42826</v>
       </c>
@@ -7313,7 +7315,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <v>42856</v>
       </c>
@@ -7333,7 +7335,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <v>42887</v>
       </c>
@@ -7353,7 +7355,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <v>42917</v>
       </c>
@@ -7379,7 +7381,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23">
         <v>42948</v>
       </c>
@@ -7399,7 +7401,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <v>42979</v>
       </c>
@@ -7419,7 +7421,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23">
         <v>43009</v>
       </c>
@@ -7439,7 +7441,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <v>43040</v>
       </c>
@@ -7459,7 +7461,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <v>43070</v>
       </c>
@@ -7483,7 +7485,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="47" t="s">
         <v>44</v>
       </c>
@@ -7501,7 +7503,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="39">
         <v>43101</v>
       </c>
@@ -7527,7 +7529,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="39">
         <v>43132</v>
       </c>
@@ -7553,7 +7555,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="39">
         <v>43160</v>
       </c>
@@ -7573,7 +7575,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="39">
         <v>43191</v>
       </c>
@@ -7593,7 +7595,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="39">
         <v>43221</v>
       </c>
@@ -7619,7 +7621,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="39">
         <v>43252</v>
       </c>
@@ -7639,7 +7641,7 @@
       <c r="J282" s="12"/>
       <c r="K282" s="15"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="39">
         <v>43282</v>
       </c>
@@ -7659,7 +7661,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="39">
         <v>43313</v>
       </c>
@@ -7679,7 +7681,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="39">
         <v>43344</v>
       </c>
@@ -7699,7 +7701,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="39">
         <v>43374</v>
       </c>
@@ -7725,7 +7727,7 @@
         <v>43110</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="39">
         <v>43405</v>
       </c>
@@ -7745,7 +7747,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="39">
         <v>43435</v>
       </c>
@@ -7771,7 +7773,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="39"/>
       <c r="B289" s="20" t="s">
         <v>48</v>
@@ -7791,7 +7793,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="47" t="s">
         <v>49</v>
       </c>
@@ -7809,7 +7811,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="39">
         <v>43466</v>
       </c>
@@ -7829,7 +7831,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="39">
         <v>43497</v>
       </c>
@@ -7849,7 +7851,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="39">
         <v>43525</v>
       </c>
@@ -7869,7 +7871,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="39">
         <v>43556</v>
       </c>
@@ -7889,7 +7891,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="39">
         <v>43586</v>
       </c>
@@ -7909,7 +7911,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="39">
         <v>43617</v>
       </c>
@@ -7929,7 +7931,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="39">
         <v>43647</v>
       </c>
@@ -7949,7 +7951,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="39">
         <v>43678</v>
       </c>
@@ -7969,7 +7971,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="39">
         <v>43709</v>
       </c>
@@ -7989,7 +7991,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="39">
         <v>43739</v>
       </c>
@@ -8015,7 +8017,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="39">
         <v>43770</v>
       </c>
@@ -8035,7 +8037,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="39">
         <v>43800</v>
       </c>
@@ -8059,7 +8061,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="47" t="s">
         <v>53</v>
       </c>
@@ -8077,7 +8079,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="39">
         <v>43831</v>
       </c>
@@ -8101,7 +8103,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="39"/>
       <c r="B305" s="20" t="s">
         <v>54</v>
@@ -8118,7 +8120,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="39">
         <v>43862</v>
       </c>
@@ -8138,7 +8140,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="39">
         <v>43891</v>
       </c>
@@ -8164,7 +8166,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="39">
         <v>43922</v>
       </c>
@@ -8184,7 +8186,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="39">
         <v>43952</v>
       </c>
@@ -8204,7 +8206,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="39">
         <v>43983</v>
       </c>
@@ -8224,7 +8226,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="39">
         <v>44013</v>
       </c>
@@ -8244,7 +8246,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="39">
         <v>44044</v>
       </c>
@@ -8264,7 +8266,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="39">
         <v>44075</v>
       </c>
@@ -8284,7 +8286,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="39">
         <v>44105</v>
       </c>
@@ -8310,7 +8312,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="39">
         <v>44136</v>
       </c>
@@ -8330,7 +8332,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="39">
         <v>44166</v>
       </c>
@@ -8356,7 +8358,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="39"/>
       <c r="B317" s="20" t="s">
         <v>57</v>
@@ -8376,7 +8378,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="47" t="s">
         <v>60</v>
       </c>
@@ -8394,7 +8396,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="39">
         <v>44197</v>
       </c>
@@ -8414,7 +8416,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="39">
         <v>44228</v>
       </c>
@@ -8434,7 +8436,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="39">
         <v>44256</v>
       </c>
@@ -8454,7 +8456,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="39">
         <v>44287</v>
       </c>
@@ -8474,7 +8476,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="39">
         <v>44317</v>
       </c>
@@ -8494,7 +8496,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="39">
         <v>44348</v>
       </c>
@@ -8514,7 +8516,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="39">
         <v>44378</v>
       </c>
@@ -8534,7 +8536,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="39">
         <v>44409</v>
       </c>
@@ -8554,7 +8556,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="39">
         <v>44440</v>
       </c>
@@ -8574,7 +8576,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="39">
         <v>44470</v>
       </c>
@@ -8594,7 +8596,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="39">
         <v>44501</v>
       </c>
@@ -8614,7 +8616,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="39">
         <v>44531</v>
       </c>
@@ -8638,7 +8640,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="39"/>
       <c r="B331" s="20" t="s">
         <v>51</v>
@@ -8658,7 +8660,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="47" t="s">
         <v>61</v>
       </c>
@@ -8676,7 +8678,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="39">
         <v>44562</v>
       </c>
@@ -8696,7 +8698,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="39">
         <v>44593</v>
       </c>
@@ -8716,7 +8718,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="39">
         <v>44621</v>
       </c>
@@ -8736,7 +8738,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="39">
         <v>44652</v>
       </c>
@@ -8756,7 +8758,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="39">
         <v>44682</v>
       </c>
@@ -8776,7 +8778,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="39">
         <v>44713</v>
       </c>
@@ -8796,7 +8798,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="39">
         <v>44743</v>
       </c>
@@ -8822,7 +8824,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="39">
         <v>44774</v>
       </c>
@@ -8842,7 +8844,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="39">
         <v>44805</v>
       </c>
@@ -8862,7 +8864,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="39">
         <v>44835</v>
       </c>
@@ -8888,7 +8890,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="39">
         <v>44866</v>
       </c>
@@ -8914,7 +8916,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="39">
         <v>44896</v>
       </c>
@@ -8940,7 +8942,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="39"/>
       <c r="B345" s="20" t="s">
         <v>47</v>
@@ -8962,7 +8964,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="47" t="s">
         <v>178</v>
       </c>
@@ -8980,7 +8982,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="39">
         <v>44927</v>
       </c>
@@ -9003,7 +9005,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="39">
         <v>44958</v>
       </c>
@@ -9020,7 +9022,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="39">
         <v>44986</v>
       </c>
@@ -9043,7 +9045,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="39">
         <v>45017</v>
       </c>
@@ -9060,7 +9062,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="39">
         <v>45047</v>
       </c>
@@ -9083,7 +9085,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="39"/>
       <c r="B352" s="20" t="s">
         <v>179</v>
@@ -9102,7 +9104,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="39"/>
       <c r="B353" s="20" t="s">
         <v>64</v>
@@ -9122,7 +9124,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="39"/>
       <c r="B354" s="20" t="s">
         <v>45</v>
@@ -9144,7 +9146,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="39">
         <v>45078</v>
       </c>
@@ -9164,13 +9166,17 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="39">
         <v>45108</v>
       </c>
-      <c r="B356" s="20"/>
+      <c r="B356" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C356" s="13"/>
-      <c r="D356" s="38"/>
+      <c r="D356" s="38">
+        <v>2</v>
+      </c>
       <c r="E356" s="9"/>
       <c r="F356" s="20"/>
       <c r="G356" s="13" t="str">
@@ -9180,9 +9186,11 @@
       <c r="H356" s="38"/>
       <c r="I356" s="9"/>
       <c r="J356" s="11"/>
-      <c r="K356" s="20"/>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K356" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="39">
         <v>45139</v>
       </c>
@@ -9200,7 +9208,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="39">
         <v>45170</v>
       </c>
@@ -9218,7 +9226,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="39">
         <v>45200</v>
       </c>
@@ -9236,7 +9244,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="39">
         <v>45231</v>
       </c>
@@ -9254,7 +9262,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="39">
         <v>45261</v>
       </c>
@@ -9272,7 +9280,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="39">
         <v>45292</v>
       </c>
@@ -9290,7 +9298,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="39">
         <v>45323</v>
       </c>
@@ -9308,7 +9316,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="39">
         <v>45352</v>
       </c>
@@ -9326,7 +9334,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="39">
         <v>45383</v>
       </c>
@@ -9344,7 +9352,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="39">
         <v>45413</v>
       </c>
@@ -9362,7 +9370,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="39">
         <v>45444</v>
       </c>
@@ -9380,7 +9388,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="39">
         <v>45474</v>
       </c>
@@ -9398,7 +9406,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="39">
         <v>45505</v>
       </c>
@@ -9416,7 +9424,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="39">
         <v>45536</v>
       </c>
@@ -9434,7 +9442,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="39">
         <v>45566</v>
       </c>
@@ -9452,7 +9460,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="39">
         <v>45597</v>
       </c>
@@ -9470,7 +9478,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="39">
         <v>45627</v>
       </c>
@@ -9488,7 +9496,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="39">
         <v>45658</v>
       </c>
@@ -9506,7 +9514,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="39">
         <v>45689</v>
       </c>
@@ -9524,7 +9532,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="39">
         <v>45717</v>
       </c>
@@ -9542,7 +9550,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="39">
         <v>45748</v>
       </c>
@@ -9560,7 +9568,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="39">
         <v>45778</v>
       </c>
@@ -9578,7 +9586,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="39">
         <v>45809</v>
       </c>
@@ -9596,7 +9604,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="39">
         <v>45839</v>
       </c>
@@ -9614,7 +9622,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="39">
         <v>45870</v>
       </c>
@@ -9632,7 +9640,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="39">
         <v>45901</v>
       </c>
@@ -9650,7 +9658,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="39">
         <v>45931</v>
       </c>
@@ -9668,7 +9676,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="39">
         <v>45962</v>
       </c>
@@ -9686,7 +9694,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="39">
         <v>45992</v>
       </c>
@@ -9704,7 +9712,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="39">
         <v>46023</v>
       </c>
@@ -9722,7 +9730,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="39">
         <v>46054</v>
       </c>
@@ -9740,7 +9748,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="39">
         <v>46082</v>
       </c>
@@ -9758,7 +9766,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="39">
         <v>46113</v>
       </c>
@@ -9776,7 +9784,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="39">
         <v>46143</v>
       </c>
@@ -9794,7 +9802,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="39">
         <v>46174</v>
       </c>
@@ -9812,7 +9820,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="39">
         <v>46204</v>
       </c>
@@ -9830,7 +9838,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="39">
         <v>46235</v>
       </c>
@@ -9848,7 +9856,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="39">
         <v>46266</v>
       </c>
@@ -9866,7 +9874,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="39">
         <v>46296</v>
       </c>
@@ -9884,7 +9892,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="39">
         <v>46327</v>
       </c>
@@ -9902,7 +9910,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="39">
         <v>46357</v>
       </c>
@@ -9920,7 +9928,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="39">
         <v>46388</v>
       </c>
@@ -9938,7 +9946,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="39"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -9954,7 +9962,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="15"/>
       <c r="C400" s="41"/>
@@ -9985,10 +9993,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10011,28 +10019,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -10045,7 +10053,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -10074,7 +10082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>30.875</v>
       </c>
@@ -10100,17 +10108,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -10131,7 +10139,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -10158,7 +10166,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -10184,7 +10192,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -10210,7 +10218,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -10236,7 +10244,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -10262,7 +10270,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -10288,7 +10296,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -10314,7 +10322,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -10340,7 +10348,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -10360,7 +10368,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -10380,7 +10388,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -10400,7 +10408,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -10421,7 +10429,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -10442,7 +10450,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -10463,7 +10471,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -10484,7 +10492,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -10505,7 +10513,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -10526,7 +10534,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -10547,7 +10555,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -10568,7 +10576,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -10589,7 +10597,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -10610,7 +10618,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -10631,7 +10639,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -10652,7 +10660,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -10673,7 +10681,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -10694,7 +10702,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -10715,7 +10723,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -10736,7 +10744,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -10757,7 +10765,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -10778,7 +10786,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -10799,7 +10807,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -10820,7 +10828,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -10829,7 +10837,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -10838,7 +10846,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -10847,7 +10855,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -10856,7 +10864,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -10865,7 +10873,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -10874,7 +10882,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -10883,7 +10891,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -10892,7 +10900,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -10901,7 +10909,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -10910,7 +10918,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -10919,7 +10927,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -10928,7 +10936,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -10937,7 +10945,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -10946,7 +10954,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -10955,7 +10963,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -10964,7 +10972,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -10973,7 +10981,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -10982,7 +10990,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -10991,7 +10999,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -11000,7 +11008,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -11009,7 +11017,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -11018,7 +11026,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -11027,7 +11035,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -11036,7 +11044,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -11045,7 +11053,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -11054,7 +11062,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -11063,7 +11071,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -11072,7 +11080,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -11081,7 +11089,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
